--- a/biology/Médecine/Asile-dépôt_de_l'hôpital_Saint-Jean/Asile-dépôt_de_l'hôpital_Saint-Jean.xlsx
+++ b/biology/Médecine/Asile-dépôt_de_l'hôpital_Saint-Jean/Asile-dépôt_de_l'hôpital_Saint-Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asile-d%C3%A9p%C3%B4t_de_l%27h%C3%B4pital_Saint-Jean</t>
+          <t>Asile-dépôt_de_l'hôpital_Saint-Jean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asile-dépôt de l'hôpital Saint-Jean était un asile psychiatrique à Bruxelles.
-Il a été construit de 1838 à 1843. En 1931, il fut fermé et remplacé par l'Institut de Psychiatrie de l'hôpital Brugmann[1].
+Il a été construit de 1838 à 1843. En 1931, il fut fermé et remplacé par l'Institut de Psychiatrie de l'hôpital Brugmann.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asile-d%C3%A9p%C3%B4t_de_l%27h%C3%B4pital_Saint-Jean</t>
+          <t>Asile-dépôt_de_l'hôpital_Saint-Jean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Chefs de service</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Joseph De Smet (1877-1895)
 Jean De Boeck (1895-1913)
-Auguste Ley (1913-1931)[2]</t>
+Auguste Ley (1913-1931)</t>
         </is>
       </c>
     </row>
